--- a/simulation_results_glmm/April10_fullsimulation/summary-results-bias-g01-edit.xlsx
+++ b/simulation_results_glmm/April10_fullsimulation/summary-results-bias-g01-edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\warde\Documents\GitHub\Master-Thesis\simulation_results_glmm\April10_fullsimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DBF3A49D-C000-4934-A208-D8D72E8EC669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BB95B0-A96C-41E5-9535-94851D1273C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="22695" windowHeight="20985" xr2:uid="{2A7D17C5-2233-4B34-955C-843B7DAF2A29}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{2A7D17C5-2233-4B34-955C-843B7DAF2A29}"/>
   </bookViews>
   <sheets>
     <sheet name="summary-results-bias-g01" sheetId="1" r:id="rId1"/>
@@ -683,7 +683,7 @@
   <autoFilter ref="A1:AJ379" xr:uid="{2E801C32-AE9F-4CFF-AEEA-3332759741AE}">
     <filterColumn colId="2">
       <filters>
-        <filter val="binary"/>
+        <filter val="continuous"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D194C1-638A-4CFA-9B22-EA5C988455A0}">
   <dimension ref="A1:AJ379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D223" workbookViewId="0">
-      <selection activeCell="P221" sqref="P221"/>
+    <sheetView tabSelected="1" topLeftCell="F193" workbookViewId="0">
+      <selection activeCell="J134" sqref="J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,16 +1062,19 @@
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="20.85546875" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="17" width="27.140625" customWidth="1"/>
-    <col min="18" max="19" width="17.42578125" customWidth="1"/>
-    <col min="20" max="21" width="27.7109375" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="27.140625" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+    <col min="20" max="20" width="27.7109375" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="27.7109375" customWidth="1"/>
     <col min="22" max="23" width="12.85546875" customWidth="1"/>
     <col min="24" max="24" width="13.85546875" customWidth="1"/>
     <col min="25" max="25" width="12.85546875" customWidth="1"/>
@@ -1198,7 +1201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>200</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100</v>
       </c>
@@ -1968,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>200</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>100</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>200</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>200</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>100</v>
       </c>
@@ -3288,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>200</v>
       </c>
@@ -3398,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>100</v>
       </c>
@@ -3508,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>200</v>
       </c>
@@ -3618,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>100</v>
       </c>
@@ -3728,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>200</v>
       </c>
@@ -3838,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>100</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>200</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -4168,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>200</v>
       </c>
@@ -4278,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>100</v>
       </c>
@@ -4388,7 +4391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>200</v>
       </c>
@@ -5158,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>100</v>
       </c>
@@ -5268,7 +5271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>200</v>
       </c>
@@ -5378,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>100</v>
       </c>
@@ -5488,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>200</v>
       </c>
@@ -5598,7 +5601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>100</v>
       </c>
@@ -5708,7 +5711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>200</v>
       </c>
@@ -5818,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>100</v>
       </c>
@@ -5928,7 +5931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>200</v>
       </c>
@@ -6038,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>100</v>
       </c>
@@ -6148,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>200</v>
       </c>
@@ -6258,7 +6261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>100</v>
       </c>
@@ -6368,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>200</v>
       </c>
@@ -7138,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>100</v>
       </c>
@@ -7248,7 +7251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>200</v>
       </c>
@@ -7358,7 +7361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>100</v>
       </c>
@@ -7468,7 +7471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>200</v>
       </c>
@@ -7578,7 +7581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>100</v>
       </c>
@@ -7688,7 +7691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>200</v>
       </c>
@@ -7798,7 +7801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>100</v>
       </c>
@@ -7908,7 +7911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>200</v>
       </c>
@@ -8018,7 +8021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>100</v>
       </c>
@@ -8128,7 +8131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>200</v>
       </c>
@@ -8238,7 +8241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>100</v>
       </c>
@@ -8348,7 +8351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>200</v>
       </c>
@@ -9118,7 +9121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>100</v>
       </c>
@@ -9228,7 +9231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>200</v>
       </c>
@@ -9338,7 +9341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>100</v>
       </c>
@@ -9448,7 +9451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>200</v>
       </c>
@@ -9558,7 +9561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>100</v>
       </c>
@@ -9668,7 +9671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>200</v>
       </c>
@@ -9778,7 +9781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>100</v>
       </c>
@@ -9888,7 +9891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>200</v>
       </c>
@@ -9998,7 +10001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>100</v>
       </c>
@@ -10108,7 +10111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>200</v>
       </c>
@@ -10218,7 +10221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>100</v>
       </c>
@@ -10328,7 +10331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>200</v>
       </c>
@@ -11098,7 +11101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>100</v>
       </c>
@@ -11208,7 +11211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>200</v>
       </c>
@@ -11318,7 +11321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>100</v>
       </c>
@@ -11428,7 +11431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>200</v>
       </c>
@@ -11538,7 +11541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>100</v>
       </c>
@@ -11648,7 +11651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>200</v>
       </c>
@@ -11758,7 +11761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>100</v>
       </c>
@@ -11868,7 +11871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>200</v>
       </c>
@@ -11978,7 +11981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>100</v>
       </c>
@@ -12088,7 +12091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>200</v>
       </c>
@@ -12198,7 +12201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -12308,7 +12311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>200</v>
       </c>
@@ -13078,7 +13081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>100</v>
       </c>
@@ -13188,7 +13191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>200</v>
       </c>
@@ -13298,7 +13301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>100</v>
       </c>
@@ -13408,7 +13411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>200</v>
       </c>
@@ -13518,7 +13521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>100</v>
       </c>
@@ -13628,7 +13631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>200</v>
       </c>
@@ -13738,7 +13741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>100</v>
       </c>
@@ -13848,7 +13851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>200</v>
       </c>
@@ -13958,7 +13961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>100</v>
       </c>
@@ -14068,7 +14071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>200</v>
       </c>
@@ -14178,7 +14181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>100</v>
       </c>
@@ -14288,7 +14291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>200</v>
       </c>
@@ -15058,7 +15061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>100</v>
       </c>
@@ -15168,7 +15171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>200</v>
       </c>
@@ -15278,7 +15281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>100</v>
       </c>
@@ -15388,7 +15391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>200</v>
       </c>
@@ -15498,7 +15501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>100</v>
       </c>
@@ -15608,7 +15611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>200</v>
       </c>
@@ -15718,7 +15721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>100</v>
       </c>
@@ -15828,7 +15831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>200</v>
       </c>
@@ -15938,7 +15941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>100</v>
       </c>
@@ -16048,7 +16051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>200</v>
       </c>
@@ -16158,7 +16161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>100</v>
       </c>
@@ -16268,7 +16271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>200</v>
       </c>
@@ -17038,7 +17041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>100</v>
       </c>
@@ -17148,7 +17151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>200</v>
       </c>
@@ -17258,7 +17261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>100</v>
       </c>
@@ -17368,7 +17371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>200</v>
       </c>
@@ -17478,7 +17481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>100</v>
       </c>
@@ -17588,7 +17591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>200</v>
       </c>
@@ -17698,7 +17701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>100</v>
       </c>
@@ -17808,7 +17811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>200</v>
       </c>
@@ -17918,7 +17921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>100</v>
       </c>
@@ -18028,7 +18031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>200</v>
       </c>
@@ -18138,7 +18141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>100</v>
       </c>
@@ -18248,7 +18251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>200</v>
       </c>
@@ -19018,7 +19021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>100</v>
       </c>
@@ -19128,7 +19131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>200</v>
       </c>
@@ -19238,7 +19241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>100</v>
       </c>
@@ -19348,7 +19351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>200</v>
       </c>
@@ -19458,7 +19461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>100</v>
       </c>
@@ -19568,7 +19571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>200</v>
       </c>
@@ -19678,7 +19681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>100</v>
       </c>
@@ -19788,7 +19791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>200</v>
       </c>
@@ -19898,7 +19901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>100</v>
       </c>
@@ -20008,7 +20011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>200</v>
       </c>
@@ -20118,7 +20121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>100</v>
       </c>
@@ -20228,7 +20231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>200</v>
       </c>
@@ -20998,7 +21001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>100</v>
       </c>
@@ -21108,7 +21111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>200</v>
       </c>
@@ -21218,7 +21221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>100</v>
       </c>
@@ -21328,7 +21331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>200</v>
       </c>
@@ -21438,7 +21441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>100</v>
       </c>
@@ -21548,7 +21551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>200</v>
       </c>
@@ -21658,7 +21661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>100</v>
       </c>
@@ -21768,7 +21771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>200</v>
       </c>
@@ -21878,7 +21881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>100</v>
       </c>
@@ -21988,7 +21991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>200</v>
       </c>
@@ -22098,7 +22101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>100</v>
       </c>
@@ -22208,7 +22211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>200</v>
       </c>
@@ -22978,7 +22981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>100</v>
       </c>
@@ -23088,7 +23091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -23198,7 +23201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>100</v>
       </c>
@@ -23308,7 +23311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>200</v>
       </c>
@@ -23418,7 +23421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>100</v>
       </c>
@@ -23528,7 +23531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>200</v>
       </c>
@@ -23638,7 +23641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>100</v>
       </c>
@@ -23748,7 +23751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>200</v>
       </c>
@@ -23858,7 +23861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>100</v>
       </c>
@@ -23968,7 +23971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>200</v>
       </c>
@@ -24078,7 +24081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>100</v>
       </c>
@@ -24188,7 +24191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>200</v>
       </c>
@@ -24958,7 +24961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>100</v>
       </c>
@@ -25068,7 +25071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>200</v>
       </c>
@@ -25178,7 +25181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>100</v>
       </c>
@@ -25288,7 +25291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>200</v>
       </c>
@@ -25398,7 +25401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>100</v>
       </c>
@@ -25508,7 +25511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>200</v>
       </c>
@@ -25618,7 +25621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>100</v>
       </c>
@@ -25728,7 +25731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>200</v>
       </c>
@@ -25838,7 +25841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>100</v>
       </c>
@@ -25948,7 +25951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>200</v>
       </c>
@@ -26058,7 +26061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>100</v>
       </c>
@@ -26168,7 +26171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>200</v>
       </c>
@@ -26938,7 +26941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>100</v>
       </c>
@@ -27048,7 +27051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>200</v>
       </c>
@@ -27158,7 +27161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>100</v>
       </c>
@@ -27268,7 +27271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>200</v>
       </c>
@@ -27378,7 +27381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>100</v>
       </c>
@@ -27488,7 +27491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>200</v>
       </c>
@@ -27598,7 +27601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>100</v>
       </c>
@@ -27708,7 +27711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>200</v>
       </c>
@@ -27818,7 +27821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>100</v>
       </c>
@@ -27928,7 +27931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>200</v>
       </c>
@@ -28038,7 +28041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>100</v>
       </c>
@@ -28148,7 +28151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>200</v>
       </c>
@@ -28918,7 +28921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>100</v>
       </c>
@@ -29028,7 +29031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>200</v>
       </c>
@@ -29138,7 +29141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>100</v>
       </c>
@@ -29248,7 +29251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>200</v>
       </c>
@@ -29358,7 +29361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>100</v>
       </c>
@@ -29468,7 +29471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>200</v>
       </c>
@@ -29578,7 +29581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>100</v>
       </c>
@@ -29688,7 +29691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>200</v>
       </c>
@@ -29798,7 +29801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>100</v>
       </c>
@@ -29908,7 +29911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>200</v>
       </c>
@@ -30018,7 +30021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>100</v>
       </c>
@@ -30128,7 +30131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>200</v>
       </c>
@@ -30898,7 +30901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>100</v>
       </c>
@@ -31008,7 +31011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>200</v>
       </c>
@@ -31118,7 +31121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>100</v>
       </c>
@@ -31228,7 +31231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>200</v>
       </c>
@@ -31338,7 +31341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>100</v>
       </c>
@@ -31448,7 +31451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>200</v>
       </c>
@@ -31558,7 +31561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>100</v>
       </c>
@@ -31668,7 +31671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>200</v>
       </c>
@@ -31778,7 +31781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>100</v>
       </c>
@@ -31888,7 +31891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>200</v>
       </c>
@@ -31998,7 +32001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>100</v>
       </c>
@@ -32108,7 +32111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>200</v>
       </c>
@@ -32878,7 +32881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>100</v>
       </c>
@@ -32988,7 +32991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>200</v>
       </c>
@@ -33098,7 +33101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>100</v>
       </c>
@@ -33208,7 +33211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>200</v>
       </c>
@@ -33318,7 +33321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>100</v>
       </c>
@@ -33428,7 +33431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>200</v>
       </c>
@@ -33538,7 +33541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>100</v>
       </c>
@@ -33648,7 +33651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>200</v>
       </c>
@@ -33758,7 +33761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>100</v>
       </c>
@@ -33868,7 +33871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>200</v>
       </c>
@@ -33978,7 +33981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>100</v>
       </c>
@@ -34088,7 +34091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>200</v>
       </c>
@@ -34858,7 +34861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>100</v>
       </c>
@@ -34968,7 +34971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>200</v>
       </c>
@@ -35078,7 +35081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>100</v>
       </c>
@@ -35188,7 +35191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>200</v>
       </c>
@@ -35298,7 +35301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>100</v>
       </c>
@@ -35408,7 +35411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>200</v>
       </c>
@@ -35518,7 +35521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>100</v>
       </c>
@@ -35628,7 +35631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>200</v>
       </c>
@@ -35738,7 +35741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>100</v>
       </c>
@@ -35848,7 +35851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>200</v>
       </c>
@@ -35958,7 +35961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>100</v>
       </c>
@@ -36068,7 +36071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>200</v>
       </c>
@@ -36838,7 +36841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>100</v>
       </c>
@@ -36948,7 +36951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>200</v>
       </c>
@@ -37058,7 +37061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>100</v>
       </c>
@@ -37168,7 +37171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>200</v>
       </c>
@@ -37278,7 +37281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>100</v>
       </c>
@@ -37388,7 +37391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>200</v>
       </c>
@@ -37498,7 +37501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>100</v>
       </c>
@@ -37608,7 +37611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>200</v>
       </c>
@@ -37718,7 +37721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>100</v>
       </c>
@@ -37828,7 +37831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>200</v>
       </c>
@@ -37938,7 +37941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>100</v>
       </c>
@@ -38048,7 +38051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>200</v>
       </c>
@@ -38818,7 +38821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>100</v>
       </c>
@@ -38928,7 +38931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>200</v>
       </c>
@@ -39038,7 +39041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>100</v>
       </c>
@@ -39148,7 +39151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>200</v>
       </c>
@@ -39258,7 +39261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>100</v>
       </c>
@@ -39368,7 +39371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>200</v>
       </c>
@@ -39478,7 +39481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>100</v>
       </c>
@@ -39588,7 +39591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>200</v>
       </c>
@@ -39698,7 +39701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>100</v>
       </c>
@@ -39808,7 +39811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>200</v>
       </c>
@@ -39918,7 +39921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>100</v>
       </c>
@@ -40028,7 +40031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>200</v>
       </c>
@@ -40798,7 +40801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>100</v>
       </c>
@@ -40908,7 +40911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>200</v>
       </c>
@@ -41018,7 +41021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>100</v>
       </c>
@@ -41128,7 +41131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>200</v>
       </c>
@@ -41238,7 +41241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>100</v>
       </c>
@@ -41348,7 +41351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>200</v>
       </c>
@@ -41458,7 +41461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>100</v>
       </c>
@@ -41568,7 +41571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>200</v>
       </c>
@@ -41678,7 +41681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>100</v>
       </c>
@@ -41788,7 +41791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>200</v>
       </c>
@@ -41898,7 +41901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>100</v>
       </c>
@@ -42008,7 +42011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>200</v>
       </c>
